--- a/data/final_scores.xlsx
+++ b/data/final_scores.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1968 Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1978 Scores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1988 Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1998 Scores" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,554 +437,2058 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>home_banking</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>home_banking</t>
+          <t>support</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>local_presence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>local_presence</t>
+          <t>mean_score</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mean_score</t>
+          <t>normalized_home_banking</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>normalized_home_banking</t>
+          <t>normalized_support</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>normalized_support</t>
+          <t>normalized_local_presence</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>normalized_local_presence</t>
+          <t>TIER1 ratio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>TIER1 ratio</t>
+          <t>normalized_TIER1_ratio</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>normalized_TIER1_ratio</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>normalized_ROE</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>normalized_ROE</t>
+          <t>cyber risk rating</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>cyber risk rating</t>
+          <t>normalized_cyber_risk_rating</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>normalized_cyber_risk_rating</t>
+          <t>Taeg</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Taeg</t>
+          <t>normalized_taeg</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>normalized_taeg</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
           <t>final_score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>banca-sella</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>48.09</v>
+      </c>
       <c r="C2" t="n">
-        <v>48.09</v>
+        <v>39.57</v>
       </c>
       <c r="D2" t="n">
-        <v>39.57</v>
+        <v>40.85</v>
       </c>
       <c r="E2" t="n">
-        <v>40.85</v>
+        <v>42.83666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>42.83666666666667</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>0.542115768463074</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6581196581196581</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.981634218854896</v>
+      </c>
+      <c r="M2" t="n">
+        <v>770</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
+      <c r="O2" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7881355932203389</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intesa-sanpaolo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.25333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6352201257861635</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9340827797649464</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9908183632734532</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.717000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8542246091876858</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>banca-popolare-di-milano</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.23333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8037735849056601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6479305058763413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3329341317365269</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.010999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.772417761580512</v>
+      </c>
+      <c r="M4" t="n">
+        <v>740</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>unicredit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.39333333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8834381551362683</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7945835462442512</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5876068376068375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.479</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9387167929414022</v>
+      </c>
+      <c r="M5" t="n">
+        <v>750</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2203389830508473</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ing-direct</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.94333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9937106918238992</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9345937659683188</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.132934131736527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2179487179487179</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.757</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>720</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4406779661016947</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>credit-agricole</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.02333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3681341719077569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4241185487991824</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.53812375249501</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3023504273504274</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.749448547041335</v>
+      </c>
+      <c r="M7" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7796610169491527</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bnl</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.83666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.762</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8084300374028964</v>
+      </c>
+      <c r="M8" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5508474576271183</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>monte-dei-paschi-di-siena</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3060796645702306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1834440470107307</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1500998003992016</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3547008547008546</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.097</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>750</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>home_banking</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>local_presence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_home_banking</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_support</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_local_presence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TIER1 ratio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_TIER1_ratio</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_ROE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cyber risk rating</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_cyber_risk_rating</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taeg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_taeg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>final_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>banca-sella</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.83666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.542115768463074</v>
+      </c>
       <c r="I2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6581196581196581</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.981634218854896</v>
+      </c>
+      <c r="M2" t="n">
+        <v>770</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7881355932203389</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intesa-sanpaolo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.25333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6352201257861635</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9340827797649464</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9908183632734532</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.717000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8542246091876858</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>banca-popolare-di-milano</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.23333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8037735849056601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6479305058763413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3329341317365269</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.010999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.772417761580512</v>
+      </c>
+      <c r="M4" t="n">
+        <v>740</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>unicredit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.39333333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8834381551362683</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7945835462442512</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5876068376068375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.479</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9387167929414022</v>
+      </c>
+      <c r="M5" t="n">
+        <v>750</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2203389830508473</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ing-direct</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.94333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9937106918238992</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9345937659683188</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.132934131736527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2179487179487179</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.757</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>720</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4406779661016947</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>credit-agricole</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.02333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3681341719077569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4241185487991824</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.53812375249501</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3023504273504274</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.749448547041335</v>
+      </c>
+      <c r="M7" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7796610169491527</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bnl</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.83666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.762</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8084300374028964</v>
+      </c>
+      <c r="M8" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5508474576271183</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>monte-dei-paschi-di-siena</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3060796645702306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1834440470107307</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1500998003992016</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3547008547008546</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.097</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>750</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>home_banking</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>local_presence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_home_banking</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_support</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_local_presence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TIER1 ratio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_TIER1_ratio</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_ROE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cyber risk rating</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_cyber_risk_rating</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taeg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_taeg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>final_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>banca-sella</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.83666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.542115768463074</v>
       </c>
+      <c r="I2" t="n">
+        <v>18.63</v>
+      </c>
       <c r="J2" t="n">
-        <v>18.63</v>
+        <v>0.6581196581196581</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6581196581196581</v>
+        <v>12.374</v>
       </c>
       <c r="L2" t="n">
-        <v>12.374</v>
+        <v>0.981634218854896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.981634218854896</v>
+        <v>770</v>
       </c>
       <c r="N2" t="n">
-        <v>770</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intesa-sanpaolo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.25333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6352201257861635</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9340827797649464</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9908183632734532</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.717000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8542246091876858</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7553191489361702</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>banca-popolare-di-milano</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.23333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8037735849056601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6479305058763413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3329341317365269</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.010999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.772417761580512</v>
+      </c>
+      <c r="M4" t="n">
+        <v>740</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8696808510638298</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>unicredit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.39333333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8834381551362683</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7945835462442512</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5876068376068375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.479</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9387167929414022</v>
+      </c>
+      <c r="M5" t="n">
+        <v>750</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ing-direct</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.94333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9937106918238992</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9345937659683188</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.132934131736527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2179487179487179</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.757</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>720</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9042553191489361</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>credit-agricole</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.02333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3681341719077569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4241185487991824</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.53812375249501</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3023504273504274</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.749448547041335</v>
+      </c>
+      <c r="M7" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8776595744680852</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bnl</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.83666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.762</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8084300374028964</v>
+      </c>
+      <c r="M8" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7632978723404255</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>monte-dei-paschi-di-siena</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3060796645702306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1834440470107307</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1500998003992016</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3547008547008546</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.097</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>750</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8670212765957447</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>home_banking</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>local_presence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_home_banking</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_support</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_local_presence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TIER1 ratio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_TIER1_ratio</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_ROE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cyber risk rating</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_cyber_risk_rating</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taeg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_taeg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>final_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>intesa-sanpaolo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.25333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6352201257861635</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9340827797649464</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9908183632734532</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.717000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8542246091876858</v>
+      </c>
+      <c r="M2" t="n">
+        <v>751.4299999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.628599999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.25</v>
+      </c>
       <c r="P2" t="n">
-        <v>4.65</v>
+        <v>0.7914110429447854</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8749999999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>banca-popolare-di-milano</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37.23333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8037735849056601</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6479305058763413</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3329341317365269</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3771367521367522</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.010999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.772417761580512</v>
+      </c>
+      <c r="M3" t="n">
+        <v>740</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9723926380368099</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>unicredit</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B4" t="n">
         <v>45.31</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C4" t="n">
         <v>35.55</v>
       </c>
-      <c r="E3" t="n">
+      <c r="D4" t="n">
         <v>52.32</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E4" t="n">
         <v>44.39333333333334</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F4" t="n">
         <v>0.8834381551362683</v>
       </c>
-      <c r="H3" t="n">
+      <c r="G4" t="n">
         <v>0.7945835462442512</v>
       </c>
-      <c r="I3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
         <v>17.97</v>
       </c>
-      <c r="K3" t="n">
+      <c r="J4" t="n">
         <v>0.5876068376068375</v>
       </c>
-      <c r="L3" t="n">
+      <c r="K4" t="n">
         <v>11.479</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L4" t="n">
         <v>0.9387167929414022</v>
       </c>
-      <c r="N3" t="n">
+      <c r="M4" t="n">
         <v>750</v>
       </c>
-      <c r="O3" t="n">
+      <c r="N4" t="n">
         <v>0.6</v>
       </c>
-      <c r="P3" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>intesa-sanpaolo</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="E4" t="n">
-        <v>52.09</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43.25333333333333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6352201257861635</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9340827797649464</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9908183632734532</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3771367521367522</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.717000000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.8542246091876858</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7484662576687118</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ing-direct</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.94333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937106918238992</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9345937659683188</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.132934131736527</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2179487179487179</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.757</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>720</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9907975460122701</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bnl</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.83666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.762</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8084300374028964</v>
+      </c>
+      <c r="M6" t="n">
         <v>751.4299999999999</v>
       </c>
-      <c r="O4" t="n">
+      <c r="N6" t="n">
         <v>0.628599999999999</v>
       </c>
-      <c r="P4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7553191489361702</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>banca-popolare-di-milano</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>37.23333333333333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8037735849056601</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6479305058763413</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3329341317365269</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3771367521367522</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.010999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.772417761580512</v>
-      </c>
-      <c r="N5" t="n">
-        <v>740</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.8696808510638298</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ing-direct</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>47.94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38.94333333333333</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9937106918238992</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9345937659683188</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.132934131736527</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2179487179487179</v>
-      </c>
-      <c r="L6" t="n">
-        <v>12.757</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>720</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="P6" t="n">
-        <v>4.54</v>
+        <v>0.776073619631902</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9042553191489361</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>credit-agricole</t>
-        </is>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>monte-dei-paschi-di-siena</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31.54</v>
       </c>
       <c r="C7" t="n">
-        <v>33.02</v>
+        <v>23.59</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3</v>
+        <v>31.03</v>
       </c>
       <c r="E7" t="n">
-        <v>40.75</v>
+        <v>28.72</v>
       </c>
       <c r="F7" t="n">
-        <v>34.02333333333333</v>
+        <v>0.3060796645702306</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3681341719077569</v>
+        <v>0.1834440470107307</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4241185487991824</v>
+        <v>0.1500998003992016</v>
       </c>
       <c r="I7" t="n">
-        <v>0.53812375249501</v>
+        <v>15.79</v>
       </c>
       <c r="J7" t="n">
-        <v>15.3</v>
+        <v>0.3547008547008546</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3023504273504274</v>
+        <v>-8.097</v>
       </c>
       <c r="L7" t="n">
-        <v>7.532</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.749448547041335</v>
+        <v>750</v>
       </c>
       <c r="N7" t="n">
-        <v>751.4299999999999</v>
+        <v>0.6</v>
       </c>
       <c r="O7" t="n">
-        <v>0.628599999999999</v>
+        <v>5.15</v>
       </c>
       <c r="P7" t="n">
-        <v>4.64</v>
+        <v>0.8220858895705521</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8776595744680852</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>monte-dei-paschi-di-siena</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F8" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3060796645702306</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1834440470107307</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1500998003992016</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3547008547008546</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-8.097</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>750</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.8670212765957447</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>bnl</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="F9" t="n">
-        <v>23.83666666666666</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.762</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8084300374028964</v>
-      </c>
-      <c r="N9" t="n">
-        <v>751.4299999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.628599999999999</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.7632978723404255</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
